--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasmitala/Documents/School/DISS-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7150BCDF-27EF-9040-9207-4DF6AC409F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A62DF5-497F-2F44-BEBB-20835D64E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16540" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>S2 - nie všetko</t>
   </si>
   <si>
     <t>suma za posledný týždeň a pól</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Pondelok 22.4</t>
+  </si>
+  <si>
+    <t>Utorok 23.4</t>
   </si>
 </sst>
 </file>
@@ -421,79 +430,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B49A39C-1CA7-3B43-A241-07BEA68B7549}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasmitala/Documents/School/DISS-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A62DF5-497F-2F44-BEBB-20835D64E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621F3EC9-F9C8-7E41-9657-471DCA4FDA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16540" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Utorok 23.4</t>
+  </si>
+  <si>
+    <t>Streda 24.4</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B49A39C-1CA7-3B43-A241-07BEA68B7549}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,7 +444,7 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -460,70 +463,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <f>1+3</f>
+      <c r="E3" s="1">
+        <f>SUM(F3:G3)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUM(F4:J4)</f>
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f>SUM(E2:E12)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasmitala/Documents/School/DISS-2023-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621F3EC9-F9C8-7E41-9657-471DCA4FDA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49073CC7-C43D-4ADA-A43F-F03C60D83014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16540" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
+    <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -54,13 +54,25 @@
   </si>
   <si>
     <t>Streda 24.4</t>
+  </si>
+  <si>
+    <t>Štvrtok 25.4</t>
+  </si>
+  <si>
+    <t>Piatok 26.4</t>
+  </si>
+  <si>
+    <t>Sobota 27.4</t>
+  </si>
+  <si>
+    <t>Nedela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +85,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,15 +457,15 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -463,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -481,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -502,57 +523,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM(F7:H7)</f>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM(F8:I8)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
       </c>
       <c r="E13">
         <f>SUM(E2:E12)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49073CC7-C43D-4ADA-A43F-F03C60D83014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC1490-CF94-46C7-9E6C-A60638528A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -65,7 +65,10 @@
     <t>Sobota 27.4</t>
   </si>
   <si>
-    <t>Nedela</t>
+    <t>Nedela 28.4</t>
+  </si>
+  <si>
+    <t>Pondelok 29.4</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -572,15 +575,28 @@
       </c>
       <c r="E8" s="2">
         <f>SUM(F8:I8)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM(F9:H9)</f>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,7 +621,7 @@
       </c>
       <c r="E13">
         <f>SUM(E2:E12)</f>
-        <v>24.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasmitala/Documents/School/DISS-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC1490-CF94-46C7-9E6C-A60638528A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1654819-A843-AE40-9802-6405CE685BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Pondelok 29.4</t>
+  </si>
+  <si>
+    <t>Utorok 30.4</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,15 +463,15 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -487,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -505,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -526,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -537,7 +540,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -548,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -566,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -584,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -593,38 +596,54 @@
       </c>
       <c r="E9" s="2">
         <f>SUM(F9:H9)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <f>SUM(F10:I10)</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
       </c>
       <c r="E13">
         <f>SUM(E2:E12)</f>
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasmitala/Documents/School/DISS-2023-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1654819-A843-AE40-9802-6405CE685BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B49C37-CEFF-4285-9734-65CEA8C9678C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
+    <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Utorok 30.4</t>
+  </si>
+  <si>
+    <t>Streda 1.5</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,15 +466,15 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -490,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -508,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -529,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -540,7 +543,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -569,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -587,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -608,42 +611,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f>SUM(F10:I10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(F11:I11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
       </c>
       <c r="E13">
         <f>SUM(E2:E12)</f>
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B49C37-CEFF-4285-9734-65CEA8C9678C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7CC88-0532-4E1B-AE9E-6DB69B1A9F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Streda 1.5</t>
+  </si>
+  <si>
+    <t>Štvrtok 2.5</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,12 +641,31 @@
       </c>
       <c r="E11" s="2">
         <f>SUM(F11:I11)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM(F12:H12)</f>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -653,7 +675,7 @@
       </c>
       <c r="E13">
         <f>SUM(E2:E12)</f>
-        <v>45.5</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias/Documents/DISS-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7CC88-0532-4E1B-AE9E-6DB69B1A9F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D36BDC-8CC3-9D48-8B58-FF23E58646E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Štvrtok 2.5</t>
+  </si>
+  <si>
+    <t>Piatok 3.5</t>
+  </si>
+  <si>
+    <t>Sobota 4.5</t>
+  </si>
+  <si>
+    <t>Nedela 5.5</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,18 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B49A39C-1CA7-3B43-A241-07BEA68B7549}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -496,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -514,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -535,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -546,7 +555,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -557,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -575,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -593,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -614,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -632,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -650,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -668,19 +677,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
       </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
       <c r="E13">
-        <f>SUM(E2:E12)</f>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <f>SUM(F14:I14)</f>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(F15:I15)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f>SUM(E2:E17)</f>
+        <v>63.3</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias/Documents/DISS-2023-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D36BDC-8CC3-9D48-8B58-FF23E58646E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C5648-8B35-463E-955A-8063AEA3C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
+    <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Nedela 5.5</t>
+  </si>
+  <si>
+    <t>Pondelok 6.5</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,15 +481,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -505,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -523,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -544,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -555,7 +558,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -566,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -584,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -602,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -623,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -641,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -659,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -677,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
@@ -689,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -707,22 +710,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(F15:I15)</f>
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="F15">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM(F16:H16)</f>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18">
         <f>SUM(E2:E17)</f>
-        <v>63.3</v>
+        <v>71.3</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias/Documents/DISS-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C5648-8B35-463E-955A-8063AEA3C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35A371E-FB77-FE43-B44C-0E1B6997B113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26295" yWindow="1800" windowWidth="21810" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
+    <workbookView xWindow="16580" yWindow="1800" windowWidth="21820" windowHeight="15320" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>S2 - nie všetko</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Pondelok 6.5</t>
+  </si>
+  <si>
+    <t>Utorok</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,15 +484,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -508,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -526,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -547,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -558,7 +561,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -569,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -587,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -605,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -626,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -644,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -662,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -680,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
@@ -692,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -710,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -725,22 +728,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(F16:H16)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUM(F17:H17)</f>
+        <v>2.6</v>
+      </c>
+      <c r="F17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E18">
         <f>SUM(E2:E17)</f>
-        <v>71.3</v>
+        <v>79.899999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias/Documents/DISS-2023-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinSubory\Dokumenty\Škola\Vysoká škola\8 Semester\DISS\DISS-2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35A371E-FB77-FE43-B44C-0E1B6997B113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E7BEC-54FB-4238-BDE6-77BE5D5658A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="1800" windowWidth="21820" windowHeight="15320" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
+    <workbookView xWindow="6690" yWindow="3030" windowWidth="35535" windowHeight="15315" xr2:uid="{B332D0A3-3666-4C42-9630-9D737949A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>Pondelok 6.5</t>
   </si>
   <si>
-    <t>Utorok</t>
+    <t>Utorok 7.5</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,15 +484,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>SUM(A2:A12)</f>
         <v>82</v>
@@ -695,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -743,22 +743,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1">
         <f>SUM(F17:H17)</f>
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="F17">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E18">
         <f>SUM(E2:E17)</f>
-        <v>79.899999999999991</v>
+        <v>82.899999999999991</v>
       </c>
     </row>
   </sheetData>
